--- a/Data/Result/BKT_parameters.xlsx
+++ b/Data/Result/BKT_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Data\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6399CC-4883-4937-8A68-CEE112442ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB136D9B-04E7-4DA0-92DA-BB03ACB4C9A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10560" yWindow="1536" windowWidth="29592" windowHeight="12300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11928" yWindow="1296" windowWidth="30552" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First_revise" sheetId="1" r:id="rId1"/>
@@ -356,10 +356,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5086633000733687E-2"/>
+          <c:x val="9.991963008658887E-2"/>
           <c:y val="9.6201995570332502E-2"/>
-          <c:w val="0.92174965183824109"/>
-          <c:h val="0.83771151491554774"/>
+          <c:w val="0.87691665475238589"/>
+          <c:h val="0.768307695896561"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -568,6 +568,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="3200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>BKT_random parameters</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="3200" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
@@ -616,6 +678,75 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>BKT_human</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3200" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> parameters</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="3200" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -7678,8 +7809,8 @@
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9618,8 +9749,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD83" sqref="AD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9627,9 +9758,11 @@
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
